--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_resonant.xlsx
@@ -761,10 +761,10 @@
         <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>26.67016311516076</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-91.68229557616606</v>
+        <v>-91.68229557616607</v>
       </c>
       <c r="S2">
         <v>152.6354521266393</v>
@@ -814,13 +814,13 @@
         <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045255</v>
+        <v>0.471132462504526</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368237</v>
+        <v>0.8867526821368235</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174648</v>
+        <v>11.70358232174647</v>
       </c>
       <c r="R3">
         <v>-113.1797985005417</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.004840030213501</v>
+        <v>1.004840030213502</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557479</v>
+        <v>0.2355662312557487</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423143</v>
+        <v>0.9127115190423138</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751337</v>
+        <v>6.185827764751326</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957917</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -896,49 +896,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322859</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322859</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.5869721977396</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.5869721977396</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043281</v>
+        <v>0.9526279648043289</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061711</v>
+        <v>0.9526279648061702</v>
       </c>
       <c r="Q5">
-        <v>-1.467109311888424E-11</v>
+        <v>-1.467909848803535E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>1.004840030206317</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598142</v>
+        <v>0.2355662312598151</v>
       </c>
       <c r="P6">
-        <v>0.912711519050749</v>
+        <v>0.9127115190507485</v>
       </c>
       <c r="Q6">
-        <v>6.18582776511488</v>
+        <v>6.185827765114868</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912247</v>
+        <v>-113.1797984912249</v>
       </c>
       <c r="S6">
-        <v>173.1869568167124</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1128,7 @@
         <v>1.071688005270969</v>
       </c>
       <c r="Q2">
-        <v>28.20385326919863</v>
+        <v>28.20385326919862</v>
       </c>
       <c r="R2">
         <v>-91.64835645787062</v>
@@ -1181,13 +1181,13 @@
         <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>0.8010472659662119</v>
+        <v>0.8010472659662118</v>
       </c>
       <c r="P3">
-        <v>0.9498440590705092</v>
+        <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630315</v>
+        <v>20.60981428630314</v>
       </c>
       <c r="R3">
         <v>-102.5423331070932</v>
@@ -1246,13 +1246,13 @@
         <v>0.936557987624871</v>
       </c>
       <c r="Q4">
-        <v>17.794818929251</v>
+        <v>17.79481892925099</v>
       </c>
       <c r="R4">
         <v>-102.9968045963019</v>
       </c>
       <c r="S4">
-        <v>159.3539935570793</v>
+        <v>159.3539935570792</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,37 +1263,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="D5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="G5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
         <v>1.053149057115868</v>
@@ -1302,7 +1302,7 @@
         <v>0.5546376111780766</v>
       </c>
       <c r="P5">
-        <v>0.9271939290302874</v>
+        <v>0.9271939290302872</v>
       </c>
       <c r="Q5">
         <v>14.82588342075279</v>
@@ -1361,10 +1361,10 @@
         <v>0.6778116409156862</v>
       </c>
       <c r="P6">
-        <v>0.9365579876298999</v>
+        <v>0.9365579876299001</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942268</v>
+        <v>17.79481892942267</v>
       </c>
       <c r="R6">
         <v>-102.9968045954625</v>
@@ -1495,7 +1495,7 @@
         <v>1.071688005270969</v>
       </c>
       <c r="Q2">
-        <v>28.20385326919863</v>
+        <v>28.20385326919862</v>
       </c>
       <c r="R2">
         <v>-91.64835645787062</v>
@@ -1548,13 +1548,13 @@
         <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>0.8010472659662119</v>
+        <v>0.8010472659662118</v>
       </c>
       <c r="P3">
-        <v>0.9498440590705092</v>
+        <v>0.9498440590705095</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630315</v>
+        <v>20.60981428630314</v>
       </c>
       <c r="R3">
         <v>-102.5423331070932</v>
@@ -1613,13 +1613,13 @@
         <v>0.936557987624871</v>
       </c>
       <c r="Q4">
-        <v>17.794818929251</v>
+        <v>17.79481892925099</v>
       </c>
       <c r="R4">
         <v>-102.9968045963019</v>
       </c>
       <c r="S4">
-        <v>159.3539935570793</v>
+        <v>159.3539935570792</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,37 +1630,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="D5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862713</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="G5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725837</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
         <v>1.053149057115868</v>
@@ -1669,7 +1669,7 @@
         <v>0.5546376111780766</v>
       </c>
       <c r="P5">
-        <v>0.9271939290302874</v>
+        <v>0.9271939290302872</v>
       </c>
       <c r="Q5">
         <v>14.82588342075279</v>
@@ -1728,10 +1728,10 @@
         <v>0.6778116409156862</v>
       </c>
       <c r="P6">
-        <v>0.9365579876298999</v>
+        <v>0.9365579876299001</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942268</v>
+        <v>17.79481892942267</v>
       </c>
       <c r="R6">
         <v>-102.9968045954625</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962683121728342</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.8925077601169356</v>
+        <v>0.8925077601169354</v>
       </c>
       <c r="P2">
-        <v>0.951700846433795</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
         <v>26.56536361475425</v>
@@ -1915,13 +1915,13 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399916</v>
+        <v>0.5561090193399911</v>
       </c>
       <c r="P3">
         <v>0.7706324860879303</v>
       </c>
       <c r="Q3">
-        <v>13.65879647337781</v>
+        <v>13.6587964733778</v>
       </c>
       <c r="R3">
         <v>-118.993657238633</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173013</v>
+        <v>0.9413015024173017</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809836</v>
+        <v>0.278054509680983</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250766</v>
+        <v>0.807841962725077</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182347</v>
+        <v>7.422585260182325</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335707</v>
       </c>
       <c r="S4">
         <v>171.3424305981766</v>
@@ -1997,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.397643038417564</v>
+        <v>2.397643038417565</v>
       </c>
       <c r="D5">
-        <v>2.397643038417564</v>
+        <v>2.397643038417565</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2012,34 +2012,34 @@
         <v>27.68559707302026</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887614</v>
+        <v>0.8660254037887615</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.8660254037891288</v>
       </c>
       <c r="Q5">
-        <v>1.933429746238006E-10</v>
+        <v>1.933248042236982E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105795</v>
+        <v>0.9413015024105797</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894997</v>
+        <v>0.2780545096894992</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343745</v>
+        <v>0.8078419627343747</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806253</v>
+        <v>7.422585260806236</v>
       </c>
       <c r="R6">
         <v>-118.9936572288337</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962683121728342</v>
+        <v>0.9962683121728338</v>
       </c>
       <c r="O2">
-        <v>0.8925077601169356</v>
+        <v>0.8925077601169354</v>
       </c>
       <c r="P2">
-        <v>0.951700846433795</v>
+        <v>0.9517008464337948</v>
       </c>
       <c r="Q2">
         <v>26.56536361475425</v>
@@ -2282,13 +2282,13 @@
         <v>1.029929217032502</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399916</v>
+        <v>0.5561090193399911</v>
       </c>
       <c r="P3">
         <v>0.7706324860879303</v>
       </c>
       <c r="Q3">
-        <v>13.65879647337781</v>
+        <v>13.6587964733778</v>
       </c>
       <c r="R3">
         <v>-118.993657238633</v>
@@ -2338,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173013</v>
+        <v>0.9413015024173017</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809836</v>
+        <v>0.278054509680983</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250766</v>
+        <v>0.807841962725077</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182347</v>
+        <v>7.422585260182325</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335707</v>
       </c>
       <c r="S4">
         <v>171.3424305981766</v>
@@ -2364,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.397643038417564</v>
+        <v>2.397643038417565</v>
       </c>
       <c r="D5">
-        <v>2.397643038417564</v>
+        <v>2.397643038417565</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2379,34 +2379,34 @@
         <v>27.68559707302026</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887614</v>
+        <v>0.8660254037887615</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.8660254037891288</v>
       </c>
       <c r="Q5">
-        <v>1.933429746238006E-10</v>
+        <v>1.933248042236982E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105795</v>
+        <v>0.9413015024105797</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894997</v>
+        <v>0.2780545096894992</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343745</v>
+        <v>0.8078419627343747</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806253</v>
+        <v>7.422585260806236</v>
       </c>
       <c r="R6">
         <v>-118.9936572288337</v>
@@ -2649,13 +2649,13 @@
         <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.760110513030768</v>
+        <v>0.7601105130307677</v>
       </c>
       <c r="P3">
         <v>0.8600596939664568</v>
       </c>
       <c r="Q3">
-        <v>21.1397320822947</v>
+        <v>21.13973208229469</v>
       </c>
       <c r="R3">
         <v>-103.5956248909722</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9736886975942208</v>
+        <v>0.9736886975942209</v>
       </c>
       <c r="O4">
-        <v>0.6105905023675673</v>
+        <v>0.6105905023675667</v>
       </c>
       <c r="P4">
         <v>0.8592675374866854</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075593</v>
+        <v>17.89765854075591</v>
       </c>
       <c r="R4">
-        <v>-101.4382340426271</v>
+        <v>-101.4382340426272</v>
       </c>
       <c r="S4">
         <v>159.6202630074795</v>
@@ -2746,37 +2746,37 @@
         <v>15.10503255976918</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
         <v>0.9265339329004408</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982434</v>
+        <v>0.4624952789982432</v>
       </c>
       <c r="P5">
-        <v>0.8651507456751669</v>
+        <v>0.8651507456751671</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380567</v>
+        <v>14.31307774380565</v>
       </c>
       <c r="R5">
-        <v>-97.8911368212769</v>
+        <v>-97.89113682127689</v>
       </c>
       <c r="S5">
         <v>164.6472678684481</v>
@@ -2826,19 +2826,19 @@
         <v>0.9736886975909312</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744956</v>
+        <v>0.6105905023744954</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928744</v>
+        <v>0.8592675374928745</v>
       </c>
       <c r="Q6">
-        <v>17.89765854109856</v>
+        <v>17.89765854109854</v>
       </c>
       <c r="R6">
         <v>-101.4382340415536</v>
       </c>
       <c r="S6">
-        <v>159.6202630073105</v>
+        <v>159.6202630073106</v>
       </c>
     </row>
   </sheetData>
@@ -3016,13 +3016,13 @@
         <v>1.024295523193719</v>
       </c>
       <c r="O3">
-        <v>0.760110513030768</v>
+        <v>0.7601105130307677</v>
       </c>
       <c r="P3">
         <v>0.8600596939664568</v>
       </c>
       <c r="Q3">
-        <v>21.1397320822947</v>
+        <v>21.13973208229469</v>
       </c>
       <c r="R3">
         <v>-103.5956248909722</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9736886975942208</v>
+        <v>0.9736886975942209</v>
       </c>
       <c r="O4">
-        <v>0.6105905023675673</v>
+        <v>0.6105905023675667</v>
       </c>
       <c r="P4">
         <v>0.8592675374866854</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075593</v>
+        <v>17.89765854075591</v>
       </c>
       <c r="R4">
-        <v>-101.4382340426271</v>
+        <v>-101.4382340426272</v>
       </c>
       <c r="S4">
         <v>159.6202630074795</v>
@@ -3113,37 +3113,37 @@
         <v>15.10503255976918</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
         <v>0.9265339329004408</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982434</v>
+        <v>0.4624952789982432</v>
       </c>
       <c r="P5">
-        <v>0.8651507456751669</v>
+        <v>0.8651507456751671</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380567</v>
+        <v>14.31307774380565</v>
       </c>
       <c r="R5">
-        <v>-97.8911368212769</v>
+        <v>-97.89113682127689</v>
       </c>
       <c r="S5">
         <v>164.6472678684481</v>
@@ -3193,19 +3193,19 @@
         <v>0.9736886975909312</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744956</v>
+        <v>0.6105905023744954</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928744</v>
+        <v>0.8592675374928745</v>
       </c>
       <c r="Q6">
-        <v>17.89765854109856</v>
+        <v>17.89765854109854</v>
       </c>
       <c r="R6">
         <v>-101.4382340415536</v>
       </c>
       <c r="S6">
-        <v>159.6202630073105</v>
+        <v>159.6202630073106</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088017887353065</v>
+        <v>1.100591709227987</v>
       </c>
       <c r="O2">
-        <v>1.100000023842407</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.088884607502261</v>
+        <v>1.100667442006223</v>
       </c>
       <c r="Q2">
-        <v>30.31264530272679</v>
+        <v>29.97766352706589</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.609439914325</v>
+        <v>150.0155027523072</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.035791580978262</v>
+        <v>1.103224270100533</v>
       </c>
       <c r="O3">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>1.044481940040107</v>
+        <v>1.103418742320501</v>
       </c>
       <c r="Q3">
-        <v>31.53782895606189</v>
+        <v>29.89168377007655</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>147.693766142978</v>
+        <v>150.0907538707419</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.025356092813023</v>
+        <v>1.10363891814447</v>
       </c>
       <c r="O4">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>1.020554893230814</v>
+        <v>1.104697765152124</v>
       </c>
       <c r="Q4">
-        <v>32.7349500718693</v>
+        <v>29.82736524393787</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999761</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>147.6867692319095</v>
+        <v>150.0769883487233</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6084925521961058</v>
+        <v>0.03321869967107251</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.026266776206082</v>
+        <v>0.3835765039444609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322228</v>
+        <v>2.528879653677781</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>-1154.065173134228</v>
       </c>
       <c r="J5">
-        <v>1.147731927081499</v>
+        <v>1.147731926947371</v>
       </c>
       <c r="K5">
-        <v>3.488438701416388</v>
+        <v>3.488438701410901</v>
       </c>
       <c r="L5">
-        <v>1.14773192717044</v>
+        <v>1.147731927187712</v>
       </c>
       <c r="M5">
-        <v>3.488438701416126</v>
+        <v>3.488438701415297</v>
       </c>
       <c r="N5">
-        <v>1.015377306145669</v>
+        <v>1.104054955908446</v>
       </c>
       <c r="O5">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P5">
-        <v>0.9966278623711203</v>
+        <v>1.105976851601527</v>
       </c>
       <c r="Q5">
-        <v>33.95614305147016</v>
+        <v>29.76309511078032</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999758</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>147.6794363569783</v>
+        <v>150.063254666179</v>
       </c>
       <c r="T5">
-        <v>0.6084925521961058</v>
+        <v>0.03321869967107251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.025356092814924</v>
+        <v>1.103638918144364</v>
       </c>
       <c r="O6">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>1.020554893231217</v>
+        <v>1.104697765152082</v>
       </c>
       <c r="Q6">
-        <v>32.73495007189391</v>
+        <v>29.82736524393727</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999976</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.6867692320167</v>
+        <v>150.0769883487183</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088017887353065</v>
+        <v>1.100591709227987</v>
       </c>
       <c r="O2">
-        <v>1.100000023842407</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.088884607502261</v>
+        <v>1.100667442006223</v>
       </c>
       <c r="Q2">
-        <v>30.31264530272679</v>
+        <v>29.97766352706589</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.609439914325</v>
+        <v>150.0155027523072</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.035791580978262</v>
+        <v>1.103224270100533</v>
       </c>
       <c r="O3">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P3">
-        <v>1.044481940040107</v>
+        <v>1.103418742320501</v>
       </c>
       <c r="Q3">
-        <v>31.53782895606189</v>
+        <v>29.89168377007655</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999764</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>147.693766142978</v>
+        <v>150.0907538707419</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.025356092813023</v>
+        <v>1.10363891814447</v>
       </c>
       <c r="O4">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P4">
-        <v>1.020554893230814</v>
+        <v>1.104697765152124</v>
       </c>
       <c r="Q4">
-        <v>32.7349500718693</v>
+        <v>29.82736524393787</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999761</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>147.6867692319095</v>
+        <v>150.0769883487233</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6084925521961058</v>
+        <v>0.03321869967107251</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.026266776206082</v>
+        <v>0.3835765039444609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322228</v>
+        <v>2.528879653677781</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>-1154.065173134228</v>
       </c>
       <c r="J5">
-        <v>1.147731927081499</v>
+        <v>1.147731926947371</v>
       </c>
       <c r="K5">
-        <v>3.488438701416388</v>
+        <v>3.488438701410901</v>
       </c>
       <c r="L5">
-        <v>1.14773192717044</v>
+        <v>1.147731927187712</v>
       </c>
       <c r="M5">
-        <v>3.488438701416126</v>
+        <v>3.488438701415297</v>
       </c>
       <c r="N5">
-        <v>1.015377306145669</v>
+        <v>1.104054955908446</v>
       </c>
       <c r="O5">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P5">
-        <v>0.9966278623711203</v>
+        <v>1.105976851601527</v>
       </c>
       <c r="Q5">
-        <v>33.95614305147016</v>
+        <v>29.76309511078032</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999758</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>147.6794363569783</v>
+        <v>150.063254666179</v>
       </c>
       <c r="T5">
-        <v>0.6084925521961058</v>
+        <v>0.03321869967107251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.025356092814924</v>
+        <v>1.103638918144364</v>
       </c>
       <c r="O6">
-        <v>1.100000023842633</v>
+        <v>1.100000023841829</v>
       </c>
       <c r="P6">
-        <v>1.020554893231217</v>
+        <v>1.104697765152082</v>
       </c>
       <c r="Q6">
-        <v>32.73495007189391</v>
+        <v>29.82736524393727</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999976</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>147.6867692320167</v>
+        <v>150.0769883487183</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090113473335265</v>
+        <v>1.100593630844445</v>
       </c>
       <c r="O2">
-        <v>1.100000023842333</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.092370521437693</v>
+        <v>1.100680139612897</v>
       </c>
       <c r="Q2">
-        <v>30.16425509124107</v>
+        <v>29.97695779343238</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6326672313542</v>
+        <v>150.0152361009948</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.047342482606794</v>
+        <v>1.103238230508603</v>
       </c>
       <c r="O3">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.062527940098245</v>
+        <v>1.103486734091516</v>
       </c>
       <c r="Q3">
-        <v>30.74603449594986</v>
+        <v>29.88802009411633</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999736</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>147.9039775352349</v>
+        <v>150.0895378172622</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.036542927280668</v>
+        <v>1.103641673087019</v>
       </c>
       <c r="O4">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P4">
-        <v>1.044213652230574</v>
+        <v>1.104778835634398</v>
       </c>
       <c r="Q4">
-        <v>31.57476875479278</v>
+        <v>29.82257639352024</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999731</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>147.7469241133815</v>
+        <v>150.0747016101936</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4714994675902703</v>
+        <v>0.03365398060558226</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.444406890720155</v>
+        <v>0.3886026952387074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322228</v>
+        <v>2.528879653677781</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>-1154.065173134228</v>
       </c>
       <c r="J5">
-        <v>1.147731927081499</v>
+        <v>1.147731926947371</v>
       </c>
       <c r="K5">
-        <v>3.488438701416388</v>
+        <v>3.488438701410901</v>
       </c>
       <c r="L5">
-        <v>1.14773192717044</v>
+        <v>1.147731927187712</v>
       </c>
       <c r="M5">
-        <v>3.488438701416126</v>
+        <v>3.488438701415297</v>
       </c>
       <c r="N5">
-        <v>1.025964767138687</v>
+        <v>1.104046554466468</v>
       </c>
       <c r="O5">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P5">
-        <v>1.025907490282229</v>
+        <v>1.106071011080014</v>
       </c>
       <c r="Q5">
-        <v>32.42077233922405</v>
+        <v>29.75718060733054</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999973</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>147.5842645502669</v>
+        <v>150.0599000671568</v>
       </c>
       <c r="T5">
-        <v>0.4714994675902703</v>
+        <v>0.03365398060558226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.03654292728206</v>
+        <v>1.103641673086912</v>
       </c>
       <c r="O6">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P6">
-        <v>1.044213652230658</v>
+        <v>1.104778835634354</v>
       </c>
       <c r="Q6">
-        <v>31.57476875482542</v>
+        <v>29.82257639351969</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999731</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>147.7469241134644</v>
+        <v>150.0747016101885</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090113473335265</v>
+        <v>1.100593630844445</v>
       </c>
       <c r="O2">
-        <v>1.100000023842333</v>
+        <v>1.100000023841833</v>
       </c>
       <c r="P2">
-        <v>1.092370521437693</v>
+        <v>1.100680139612897</v>
       </c>
       <c r="Q2">
-        <v>30.16425509124107</v>
+        <v>29.97695779343238</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.6326672313542</v>
+        <v>150.0152361009948</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.047342482606794</v>
+        <v>1.103238230508603</v>
       </c>
       <c r="O3">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P3">
-        <v>1.062527940098245</v>
+        <v>1.103486734091516</v>
       </c>
       <c r="Q3">
-        <v>30.74603449594986</v>
+        <v>29.88802009411633</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999736</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S3">
-        <v>147.9039775352349</v>
+        <v>150.0895378172622</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.036542927280668</v>
+        <v>1.103641673087019</v>
       </c>
       <c r="O4">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P4">
-        <v>1.044213652230574</v>
+        <v>1.104778835634398</v>
       </c>
       <c r="Q4">
-        <v>31.57476875479278</v>
+        <v>29.82257639352024</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999731</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S4">
-        <v>147.7469241133815</v>
+        <v>150.0747016101936</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4714994675902703</v>
+        <v>0.03365398060558226</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.444406890720155</v>
+        <v>0.3886026952387074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322228</v>
+        <v>2.528879653677781</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>-1154.065173134228</v>
       </c>
       <c r="J5">
-        <v>1.147731927081499</v>
+        <v>1.147731926947371</v>
       </c>
       <c r="K5">
-        <v>3.488438701416388</v>
+        <v>3.488438701410901</v>
       </c>
       <c r="L5">
-        <v>1.14773192717044</v>
+        <v>1.147731927187712</v>
       </c>
       <c r="M5">
-        <v>3.488438701416126</v>
+        <v>3.488438701415297</v>
       </c>
       <c r="N5">
-        <v>1.025964767138687</v>
+        <v>1.104046554466468</v>
       </c>
       <c r="O5">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P5">
-        <v>1.025907490282229</v>
+        <v>1.106071011080014</v>
       </c>
       <c r="Q5">
-        <v>32.42077233922405</v>
+        <v>29.75718060733054</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999973</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>147.5842645502669</v>
+        <v>150.0599000671568</v>
       </c>
       <c r="T5">
-        <v>0.4714994675902703</v>
+        <v>0.03365398060558226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.03654292728206</v>
+        <v>1.103641673086912</v>
       </c>
       <c r="O6">
-        <v>1.100000023842624</v>
+        <v>1.100000023841832</v>
       </c>
       <c r="P6">
-        <v>1.044213652230658</v>
+        <v>1.104778835634354</v>
       </c>
       <c r="Q6">
-        <v>31.57476875482542</v>
+        <v>29.82257639351969</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999731</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>147.7469241134644</v>
+        <v>150.0747016101885</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9873427700107575</v>
+        <v>1.000609709200336</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997154</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="P2">
-        <v>0.9900783991152757</v>
+        <v>1.000690736978407</v>
       </c>
       <c r="Q2">
-        <v>30.24312533827086</v>
+        <v>29.97448557908421</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.4864336888603</v>
+        <v>150.0174715479701</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9379024906187385</v>
+        <v>1.003059471481963</v>
       </c>
       <c r="O3">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P3">
-        <v>0.9551780069356927</v>
+        <v>1.00326191860331</v>
       </c>
       <c r="Q3">
-        <v>31.04223862657802</v>
+        <v>29.88577271045521</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999763</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.276737793794</v>
+        <v>150.0941155428425</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9293548088024493</v>
+        <v>1.003068379556715</v>
       </c>
       <c r="O4">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P4">
-        <v>0.9246539916979587</v>
+        <v>1.004779531478438</v>
       </c>
       <c r="Q4">
-        <v>32.86739621771732</v>
+        <v>29.78573465862615</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999976</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.5862063959268</v>
+        <v>150.0442311979899</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5336417768137481</v>
+        <v>0.03020378330201213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.161964469884954</v>
+        <v>0.3487632483992366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439234</v>
+        <v>4.855300931106363</v>
       </c>
       <c r="I5">
-        <v>54.74848265373458</v>
+        <v>-1154.066690747478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898709</v>
+        <v>2.112151900763815</v>
       </c>
       <c r="K5">
-        <v>3.596397547088405</v>
+        <v>3.596397547082364</v>
       </c>
       <c r="L5">
-        <v>2.112151900850782</v>
+        <v>2.112151900866266</v>
       </c>
       <c r="M5">
-        <v>3.59639754708822</v>
+        <v>3.596397547088226</v>
       </c>
       <c r="N5">
-        <v>0.9217671087583316</v>
+        <v>1.00308034541883</v>
       </c>
       <c r="O5">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P5">
-        <v>0.8941587930599429</v>
+        <v>1.006297903703732</v>
       </c>
       <c r="Q5">
-        <v>34.72451398956261</v>
+        <v>29.68569868856857</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999756</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>147.9167939911927</v>
+        <v>149.9944973534779</v>
       </c>
       <c r="T5">
-        <v>0.5336417768137481</v>
+        <v>0.03020378330201214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.929354808805166</v>
+        <v>1.00306837955657</v>
       </c>
       <c r="O6">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P6">
-        <v>0.9246539916993197</v>
+        <v>1.004779531478319</v>
       </c>
       <c r="Q6">
-        <v>32.86739621770207</v>
+        <v>29.78573465862916</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999976</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.5862063960733</v>
+        <v>150.0442311979843</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9873427700107575</v>
+        <v>1.000609709200336</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997154</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="P2">
-        <v>0.9900783991152757</v>
+        <v>1.000690736978407</v>
       </c>
       <c r="Q2">
-        <v>30.24312533827086</v>
+        <v>29.97448557908421</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.4864336888603</v>
+        <v>150.0174715479701</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9379024906187385</v>
+        <v>1.003059471481963</v>
       </c>
       <c r="O3">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999664</v>
       </c>
       <c r="P3">
-        <v>0.9551780069356927</v>
+        <v>1.00326191860331</v>
       </c>
       <c r="Q3">
-        <v>31.04223862657802</v>
+        <v>29.88577271045521</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999763</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>147.276737793794</v>
+        <v>150.0941155428425</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9293548088024493</v>
+        <v>1.003068379556715</v>
       </c>
       <c r="O4">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P4">
-        <v>0.9246539916979587</v>
+        <v>1.004779531478438</v>
       </c>
       <c r="Q4">
-        <v>32.86739621771732</v>
+        <v>29.78573465862615</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999976</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.5862063959268</v>
+        <v>150.0442311979899</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5336417768137481</v>
+        <v>0.03020378330201213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.161964469884954</v>
+        <v>0.3487632483992366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439234</v>
+        <v>4.855300931106363</v>
       </c>
       <c r="I5">
-        <v>54.74848265373458</v>
+        <v>-1154.066690747478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898709</v>
+        <v>2.112151900763815</v>
       </c>
       <c r="K5">
-        <v>3.596397547088405</v>
+        <v>3.596397547082364</v>
       </c>
       <c r="L5">
-        <v>2.112151900850782</v>
+        <v>2.112151900866266</v>
       </c>
       <c r="M5">
-        <v>3.59639754708822</v>
+        <v>3.596397547088226</v>
       </c>
       <c r="N5">
-        <v>0.9217671087583316</v>
+        <v>1.00308034541883</v>
       </c>
       <c r="O5">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P5">
-        <v>0.8941587930599429</v>
+        <v>1.006297903703732</v>
       </c>
       <c r="Q5">
-        <v>34.72451398956261</v>
+        <v>29.68569868856857</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999756</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>147.9167939911927</v>
+        <v>149.9944973534779</v>
       </c>
       <c r="T5">
-        <v>0.5336417768137481</v>
+        <v>0.03020378330201214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.929354808805166</v>
+        <v>1.00306837955657</v>
       </c>
       <c r="O6">
-        <v>1.000000000000353</v>
+        <v>0.9999999999999662</v>
       </c>
       <c r="P6">
-        <v>0.9246539916993197</v>
+        <v>1.004779531478319</v>
       </c>
       <c r="Q6">
-        <v>32.86739621770207</v>
+        <v>29.78573465862916</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999976</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>147.5862063960733</v>
+        <v>150.0442311979843</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9899379162572908</v>
+        <v>1.000611590957946</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996969</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9932070813105822</v>
+        <v>1.000703817922918</v>
       </c>
       <c r="Q2">
-        <v>30.11966315038685</v>
+        <v>29.97368262021806</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5568309966734</v>
+        <v>150.0171628450686</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.950881582385519</v>
+        <v>1.003072193890987</v>
       </c>
       <c r="O3">
-        <v>1.000000000000191</v>
+        <v>0.9999999999999671</v>
       </c>
       <c r="P3">
-        <v>0.9697431803290304</v>
+        <v>1.003326447407266</v>
       </c>
       <c r="Q3">
-        <v>30.44952865280025</v>
+        <v>29.88193065031788</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999731</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.7049991281893</v>
+        <v>150.0928106678629</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413512423797129</v>
+        <v>1.003057664140802</v>
       </c>
       <c r="O4">
-        <v>1.000000000000191</v>
+        <v>0.999999999999967</v>
       </c>
       <c r="P4">
-        <v>0.9459467050428239</v>
+        <v>1.004851944825984</v>
       </c>
       <c r="Q4">
-        <v>31.77228922560797</v>
+        <v>29.78058880118448</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.7811050052922</v>
+        <v>150.0411148769242</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4109764844776703</v>
+        <v>0.0305980903859105</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.745547678875781</v>
+        <v>0.3533163144198785</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439234</v>
+        <v>4.855300931106363</v>
       </c>
       <c r="I5">
-        <v>54.74848265373458</v>
+        <v>-1154.066690747478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898709</v>
+        <v>2.112151900763815</v>
       </c>
       <c r="K5">
-        <v>3.596397547088405</v>
+        <v>3.596397547082364</v>
       </c>
       <c r="L5">
-        <v>2.112151900850782</v>
+        <v>2.112151900866266</v>
       </c>
       <c r="M5">
-        <v>3.59639754708822</v>
+        <v>3.596397547088226</v>
       </c>
       <c r="N5">
-        <v>0.9323327307442657</v>
+        <v>1.003046272514718</v>
       </c>
       <c r="O5">
-        <v>1.000000000000191</v>
+        <v>0.999999999999967</v>
       </c>
       <c r="P5">
-        <v>0.9221519848974025</v>
+        <v>1.006378257790722</v>
       </c>
       <c r="Q5">
-        <v>33.12137106744928</v>
+        <v>29.67924433309982</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999726</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.86113862078</v>
+        <v>149.9895758518976</v>
       </c>
       <c r="T5">
-        <v>0.4109764844776702</v>
+        <v>0.03059809038591049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413512423818118</v>
+        <v>1.003057664140656</v>
       </c>
       <c r="O6">
-        <v>1.000000000000191</v>
+        <v>0.999999999999967</v>
       </c>
       <c r="P6">
-        <v>0.9459467050436592</v>
+        <v>1.004851944825863</v>
       </c>
       <c r="Q6">
-        <v>31.77228922561373</v>
+        <v>29.78058880118763</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>147.781105005409</v>
+        <v>150.0411148769186</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9899379162572908</v>
+        <v>1.000611590957946</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996969</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.9932070813105822</v>
+        <v>1.000703817922918</v>
       </c>
       <c r="Q2">
-        <v>30.11966315038685</v>
+        <v>29.97368262021806</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.5568309966734</v>
+        <v>150.0171628450686</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.950881582385519</v>
+        <v>1.003072193890987</v>
       </c>
       <c r="O3">
-        <v>1.000000000000191</v>
+        <v>0.9999999999999671</v>
       </c>
       <c r="P3">
-        <v>0.9697431803290304</v>
+        <v>1.003326447407266</v>
       </c>
       <c r="Q3">
-        <v>30.44952865280025</v>
+        <v>29.88193065031788</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999731</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>147.7049991281893</v>
+        <v>150.0928106678629</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413512423797129</v>
+        <v>1.003057664140802</v>
       </c>
       <c r="O4">
-        <v>1.000000000000191</v>
+        <v>0.999999999999967</v>
       </c>
       <c r="P4">
-        <v>0.9459467050428239</v>
+        <v>1.004851944825984</v>
       </c>
       <c r="Q4">
-        <v>31.77228922560797</v>
+        <v>29.78058880118448</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>147.7811050052922</v>
+        <v>150.0411148769242</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4109764844776703</v>
+        <v>0.0305980903859105</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.745547678875781</v>
+        <v>0.3533163144198785</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439234</v>
+        <v>4.855300931106363</v>
       </c>
       <c r="I5">
-        <v>54.74848265373458</v>
+        <v>-1154.066690747478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898709</v>
+        <v>2.112151900763815</v>
       </c>
       <c r="K5">
-        <v>3.596397547088405</v>
+        <v>3.596397547082364</v>
       </c>
       <c r="L5">
-        <v>2.112151900850782</v>
+        <v>2.112151900866266</v>
       </c>
       <c r="M5">
-        <v>3.59639754708822</v>
+        <v>3.596397547088226</v>
       </c>
       <c r="N5">
-        <v>0.9323327307442657</v>
+        <v>1.003046272514718</v>
       </c>
       <c r="O5">
-        <v>1.000000000000191</v>
+        <v>0.999999999999967</v>
       </c>
       <c r="P5">
-        <v>0.9221519848974025</v>
+        <v>1.006378257790722</v>
       </c>
       <c r="Q5">
-        <v>33.12137106744928</v>
+        <v>29.67924433309982</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999726</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>147.86113862078</v>
+        <v>149.9895758518976</v>
       </c>
       <c r="T5">
-        <v>0.4109764844776702</v>
+        <v>0.03059809038591049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413512423818118</v>
+        <v>1.003057664140656</v>
       </c>
       <c r="O6">
-        <v>1.000000000000191</v>
+        <v>0.999999999999967</v>
       </c>
       <c r="P6">
-        <v>0.9459467050436592</v>
+        <v>1.004851944825863</v>
       </c>
       <c r="Q6">
-        <v>31.77228922561373</v>
+        <v>29.78058880118763</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>147.781105005409</v>
+        <v>150.0411148769186</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.078661323175725</v>
+        <v>1.082165747217215</v>
       </c>
       <c r="O2">
-        <v>0.9717494206874492</v>
+        <v>0.9717494206873153</v>
       </c>
       <c r="P2">
-        <v>1.053431042655359</v>
+        <v>1.056766442822214</v>
       </c>
       <c r="Q2">
-        <v>26.74885866362773</v>
+        <v>26.66498427092447</v>
       </c>
       <c r="R2">
-        <v>-91.6822955761624</v>
+        <v>-91.68229557616584</v>
       </c>
       <c r="S2">
-        <v>152.5352116541518</v>
+        <v>152.6390660909011</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.048398147906235</v>
+        <v>1.068469863250262</v>
       </c>
       <c r="O3">
-        <v>0.4711324625044809</v>
+        <v>0.4711324625044875</v>
       </c>
       <c r="P3">
-        <v>0.8686897175261133</v>
+        <v>0.8876893886299914</v>
       </c>
       <c r="Q3">
-        <v>11.81059969072144</v>
+        <v>11.69073115073005</v>
       </c>
       <c r="R3">
-        <v>-113.1797985005025</v>
+        <v>-113.1797985005389</v>
       </c>
       <c r="S3">
-        <v>165.4308925358144</v>
+        <v>165.8771993335669</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9805129367139569</v>
+        <v>1.006002195368383</v>
       </c>
       <c r="O4">
-        <v>0.2355662312556872</v>
+        <v>0.2355662312557061</v>
       </c>
       <c r="P4">
-        <v>0.8880475922834493</v>
+        <v>0.9139316030895031</v>
       </c>
       <c r="Q4">
-        <v>6.433235711398781</v>
+        <v>6.163604958565873</v>
       </c>
       <c r="R4">
-        <v>-113.1797984956863</v>
+        <v>-113.1797984957839</v>
       </c>
       <c r="S4">
-        <v>173.0999488074104</v>
+        <v>173.1795090990055</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.971863591106537</v>
+        <v>2.997934741496173</v>
       </c>
       <c r="D5">
-        <v>3.027772914345713</v>
+        <v>2.992725122633325</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.31612488640415</v>
+        <v>34.61716860031493</v>
       </c>
       <c r="G5">
-        <v>34.9617101428511</v>
+        <v>34.55701310325813</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
-        <v>0.9224887204894724</v>
+        <v>0.9540687493751254</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9224887204918462</v>
+        <v>0.9540687493770222</v>
       </c>
       <c r="Q5">
-        <v>0.3192929610913451</v>
+        <v>-0.02872367129296268</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.6807070388815</v>
+        <v>179.97127632873</v>
       </c>
       <c r="T5">
-        <v>0.3331736420530154</v>
+        <v>0.01653401352047144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9805129367072178</v>
+        <v>1.006002195361173</v>
       </c>
       <c r="O6">
-        <v>0.2355662312597534</v>
+        <v>0.2355662312597724</v>
       </c>
       <c r="P6">
-        <v>0.8880475922922212</v>
+        <v>0.9139316030979189</v>
       </c>
       <c r="Q6">
-        <v>6.433235711792576</v>
+        <v>6.163604958928072</v>
       </c>
       <c r="R6">
-        <v>-113.1797984911195</v>
+        <v>-113.1797984912171</v>
       </c>
       <c r="S6">
-        <v>173.0999488071418</v>
+        <v>173.1795090987163</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.078661323175725</v>
+        <v>1.082165747217215</v>
       </c>
       <c r="O2">
-        <v>0.9717494206874492</v>
+        <v>0.9717494206873153</v>
       </c>
       <c r="P2">
-        <v>1.053431042655359</v>
+        <v>1.056766442822214</v>
       </c>
       <c r="Q2">
-        <v>26.74885866362773</v>
+        <v>26.66498427092447</v>
       </c>
       <c r="R2">
-        <v>-91.6822955761624</v>
+        <v>-91.68229557616584</v>
       </c>
       <c r="S2">
-        <v>152.5352116541518</v>
+        <v>152.6390660909011</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.048398147906235</v>
+        <v>1.068469863250262</v>
       </c>
       <c r="O3">
-        <v>0.4711324625044809</v>
+        <v>0.4711324625044875</v>
       </c>
       <c r="P3">
-        <v>0.8686897175261133</v>
+        <v>0.8876893886299914</v>
       </c>
       <c r="Q3">
-        <v>11.81059969072144</v>
+        <v>11.69073115073005</v>
       </c>
       <c r="R3">
-        <v>-113.1797985005025</v>
+        <v>-113.1797985005389</v>
       </c>
       <c r="S3">
-        <v>165.4308925358144</v>
+        <v>165.8771993335669</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9805129367139569</v>
+        <v>1.006002195368383</v>
       </c>
       <c r="O4">
-        <v>0.2355662312556872</v>
+        <v>0.2355662312557061</v>
       </c>
       <c r="P4">
-        <v>0.8880475922834493</v>
+        <v>0.9139316030895031</v>
       </c>
       <c r="Q4">
-        <v>6.433235711398781</v>
+        <v>6.163604958565873</v>
       </c>
       <c r="R4">
-        <v>-113.1797984956863</v>
+        <v>-113.1797984957839</v>
       </c>
       <c r="S4">
-        <v>173.0999488074104</v>
+        <v>173.1795090990055</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.971863591106537</v>
+        <v>2.997934741496173</v>
       </c>
       <c r="D5">
-        <v>3.027772914345713</v>
+        <v>2.992725122633325</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.31612488640415</v>
+        <v>34.61716860031493</v>
       </c>
       <c r="G5">
-        <v>34.9617101428511</v>
+        <v>34.55701310325813</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
-        <v>0.9224887204894724</v>
+        <v>0.9540687493751254</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9224887204918462</v>
+        <v>0.9540687493770222</v>
       </c>
       <c r="Q5">
-        <v>0.3192929610913451</v>
+        <v>-0.02872367129296268</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.6807070388815</v>
+        <v>179.97127632873</v>
       </c>
       <c r="T5">
-        <v>0.3331736420530154</v>
+        <v>0.01653401352047144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9805129367072178</v>
+        <v>1.006002195361173</v>
       </c>
       <c r="O6">
-        <v>0.2355662312597534</v>
+        <v>0.2355662312597724</v>
       </c>
       <c r="P6">
-        <v>0.8880475922922212</v>
+        <v>0.9139316030979189</v>
       </c>
       <c r="Q6">
-        <v>6.433235711792576</v>
+        <v>6.163604958928072</v>
       </c>
       <c r="R6">
-        <v>-113.1797984911195</v>
+        <v>-113.1797984912171</v>
       </c>
       <c r="S6">
-        <v>173.0999488071418</v>
+        <v>173.1795090987163</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097351063259249</v>
+        <v>1.100474106647302</v>
       </c>
       <c r="O2">
-        <v>1.060344120151025</v>
+        <v>1.060344120150893</v>
       </c>
       <c r="P2">
-        <v>1.0775136546098</v>
+        <v>1.080192170369669</v>
       </c>
       <c r="Q2">
-        <v>28.85562511682664</v>
+        <v>28.79212518634876</v>
       </c>
       <c r="R2">
-        <v>-91.25541415425317</v>
+        <v>-91.25541415425398</v>
       </c>
       <c r="S2">
-        <v>150.5054829339255</v>
+        <v>150.6125223810468</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097182589385117</v>
+        <v>1.114317562792196</v>
       </c>
       <c r="O3">
-        <v>0.9069449605549007</v>
+        <v>0.9069449605547393</v>
       </c>
       <c r="P3">
-        <v>0.9801670181799115</v>
+        <v>0.9940979742661399</v>
       </c>
       <c r="Q3">
-        <v>23.94452370765613</v>
+        <v>23.73493921933074</v>
       </c>
       <c r="R3">
-        <v>-98.42976487995784</v>
+        <v>-98.42976487996299</v>
       </c>
       <c r="S3">
-        <v>152.5486119305308</v>
+        <v>153.1734857603471</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.073825398382846</v>
+        <v>1.094912990363012</v>
       </c>
       <c r="O4">
-        <v>0.824525145899109</v>
+        <v>0.8245251458989576</v>
       </c>
       <c r="P4">
-        <v>0.9598133189828122</v>
+        <v>0.9801403479335016</v>
       </c>
       <c r="Q4">
-        <v>22.26260318448779</v>
+        <v>21.83403542777703</v>
       </c>
       <c r="R4">
-        <v>-98.72515785570947</v>
+        <v>-98.72515785571717</v>
       </c>
       <c r="S4">
-        <v>154.8334124085571</v>
+        <v>155.4160506889564</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.004677087141675</v>
+        <v>1.054497486491698</v>
       </c>
       <c r="D5">
-        <v>1.1114448011626</v>
+        <v>1.044611806359818</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.6010117341979</v>
+        <v>12.17628815371532</v>
       </c>
       <c r="G5">
-        <v>12.83385910281274</v>
+        <v>12.06213815201004</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
-        <v>1.051434179344487</v>
+        <v>1.076756255559116</v>
       </c>
       <c r="O5">
-        <v>0.7421321146315599</v>
+        <v>0.7421321146314188</v>
       </c>
       <c r="P5">
-        <v>0.9410504906318055</v>
+        <v>0.9677262007829257</v>
       </c>
       <c r="Q5">
-        <v>20.50747906418569</v>
+        <v>19.86679533379754</v>
       </c>
       <c r="R5">
-        <v>-99.08615255180599</v>
+        <v>-99.08615255181685</v>
       </c>
       <c r="S5">
-        <v>157.213238462039</v>
+        <v>157.719760888277</v>
       </c>
       <c r="T5">
-        <v>0.2886010851889688</v>
+        <v>0.01664167848046787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.073825398380674</v>
+        <v>1.09491299036039</v>
       </c>
       <c r="O6">
-        <v>0.8245251459001589</v>
+        <v>0.8245251459000074</v>
       </c>
       <c r="P6">
-        <v>0.9598133189862649</v>
+        <v>0.9801403479368298</v>
       </c>
       <c r="Q6">
-        <v>22.26260318461478</v>
+        <v>21.83403542788879</v>
       </c>
       <c r="R6">
-        <v>-98.72515785524742</v>
+        <v>-98.72515785525513</v>
       </c>
       <c r="S6">
-        <v>154.8334124086099</v>
+        <v>155.4160506889786</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097351063259249</v>
+        <v>1.100474106647302</v>
       </c>
       <c r="O2">
-        <v>1.060344120151025</v>
+        <v>1.060344120150893</v>
       </c>
       <c r="P2">
-        <v>1.0775136546098</v>
+        <v>1.080192170369669</v>
       </c>
       <c r="Q2">
-        <v>28.85562511682664</v>
+        <v>28.79212518634876</v>
       </c>
       <c r="R2">
-        <v>-91.25541415425317</v>
+        <v>-91.25541415425398</v>
       </c>
       <c r="S2">
-        <v>150.5054829339255</v>
+        <v>150.6125223810468</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097182589385117</v>
+        <v>1.114317562792196</v>
       </c>
       <c r="O3">
-        <v>0.9069449605549007</v>
+        <v>0.9069449605547393</v>
       </c>
       <c r="P3">
-        <v>0.9801670181799115</v>
+        <v>0.9940979742661399</v>
       </c>
       <c r="Q3">
-        <v>23.94452370765613</v>
+        <v>23.73493921933074</v>
       </c>
       <c r="R3">
-        <v>-98.42976487995784</v>
+        <v>-98.42976487996299</v>
       </c>
       <c r="S3">
-        <v>152.5486119305308</v>
+        <v>153.1734857603471</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.073825398382846</v>
+        <v>1.094912990363012</v>
       </c>
       <c r="O4">
-        <v>0.824525145899109</v>
+        <v>0.8245251458989576</v>
       </c>
       <c r="P4">
-        <v>0.9598133189828122</v>
+        <v>0.9801403479335016</v>
       </c>
       <c r="Q4">
-        <v>22.26260318448779</v>
+        <v>21.83403542777703</v>
       </c>
       <c r="R4">
-        <v>-98.72515785570947</v>
+        <v>-98.72515785571717</v>
       </c>
       <c r="S4">
-        <v>154.8334124085571</v>
+        <v>155.4160506889564</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.004677087141675</v>
+        <v>1.054497486491698</v>
       </c>
       <c r="D5">
-        <v>1.1114448011626</v>
+        <v>1.044611806359818</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.6010117341979</v>
+        <v>12.17628815371532</v>
       </c>
       <c r="G5">
-        <v>12.83385910281274</v>
+        <v>12.06213815201004</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
-        <v>1.051434179344487</v>
+        <v>1.076756255559116</v>
       </c>
       <c r="O5">
-        <v>0.7421321146315599</v>
+        <v>0.7421321146314188</v>
       </c>
       <c r="P5">
-        <v>0.9410504906318055</v>
+        <v>0.9677262007829257</v>
       </c>
       <c r="Q5">
-        <v>20.50747906418569</v>
+        <v>19.86679533379754</v>
       </c>
       <c r="R5">
-        <v>-99.08615255180599</v>
+        <v>-99.08615255181685</v>
       </c>
       <c r="S5">
-        <v>157.213238462039</v>
+        <v>157.719760888277</v>
       </c>
       <c r="T5">
-        <v>0.2886010851889688</v>
+        <v>0.01664167848046787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.073825398380674</v>
+        <v>1.09491299036039</v>
       </c>
       <c r="O6">
-        <v>0.8245251459001589</v>
+        <v>0.8245251459000074</v>
       </c>
       <c r="P6">
-        <v>0.9598133189862649</v>
+        <v>0.9801403479368298</v>
       </c>
       <c r="Q6">
-        <v>22.26260318461478</v>
+        <v>21.83403542788879</v>
       </c>
       <c r="R6">
-        <v>-98.72515785524742</v>
+        <v>-98.72515785525513</v>
       </c>
       <c r="S6">
-        <v>154.8334124086099</v>
+        <v>155.4160506889786</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9927358528613245</v>
+        <v>0.9964266616127936</v>
       </c>
       <c r="O2">
-        <v>0.8925077601168738</v>
+        <v>0.8925077601169313</v>
       </c>
       <c r="P2">
-        <v>0.9488133340085281</v>
+        <v>0.9518751703760149</v>
       </c>
       <c r="Q2">
-        <v>26.6247610261521</v>
+        <v>26.55954746584271</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842377</v>
+        <v>-93.21942694842234</v>
       </c>
       <c r="S2">
-        <v>151.9474457047307</v>
+        <v>152.0892057651289</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.012125426291422</v>
+        <v>1.030800055698176</v>
       </c>
       <c r="O3">
-        <v>0.5561090193401624</v>
+        <v>0.5561090193399416</v>
       </c>
       <c r="P3">
-        <v>0.7555422650375324</v>
+        <v>0.7715090948555632</v>
       </c>
       <c r="Q3">
-        <v>13.66506888193331</v>
+        <v>13.64428805325856</v>
       </c>
       <c r="R3">
-        <v>-118.9936572386278</v>
+        <v>-118.9936572386297</v>
       </c>
       <c r="S3">
-        <v>160.8938660067494</v>
+        <v>161.6212260961166</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9182099025475329</v>
+        <v>0.9423650086357304</v>
       </c>
       <c r="O4">
-        <v>0.278054509681164</v>
+        <v>0.2780545096809343</v>
       </c>
       <c r="P4">
-        <v>0.7843168634841295</v>
+        <v>0.8090206275911052</v>
       </c>
       <c r="Q4">
-        <v>7.721538034127004</v>
+        <v>7.388145802825586</v>
       </c>
       <c r="R4">
-        <v>-118.993657233567</v>
+        <v>-118.9936572335597</v>
       </c>
       <c r="S4">
-        <v>171.2112345780337</v>
+        <v>171.3247428755763</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.365362558453445</v>
+        <v>2.401491033260913</v>
       </c>
       <c r="D5">
-        <v>2.438396203888634</v>
+        <v>2.393812454838103</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.31285419708317</v>
+        <v>27.73002989019322</v>
       </c>
       <c r="G5">
-        <v>28.15617409412128</v>
+        <v>27.64136530380515</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
-        <v>0.8363278178308596</v>
+        <v>0.8673731614741615</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8363278178310658</v>
+        <v>0.8673731614746218</v>
       </c>
       <c r="Q5">
-        <v>0.5226334985301729</v>
+        <v>-0.05288768975600288</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.4773665018746</v>
+        <v>179.9471123098505</v>
       </c>
       <c r="T5">
-        <v>0.2943868228310421</v>
+        <v>0.01503146208658031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.918209902541578</v>
+        <v>0.9423650086289639</v>
       </c>
       <c r="O6">
-        <v>0.2780545096896802</v>
+        <v>0.2780545096894504</v>
       </c>
       <c r="P6">
-        <v>0.7843168634940614</v>
+        <v>0.8090206276003692</v>
       </c>
       <c r="Q6">
-        <v>7.721538034783737</v>
+        <v>7.388145803448443</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288301</v>
+        <v>-118.9936572288227</v>
       </c>
       <c r="S6">
-        <v>171.2112345774834</v>
+        <v>171.32474287501</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9927358528613245</v>
+        <v>0.9964266616127936</v>
       </c>
       <c r="O2">
-        <v>0.8925077601168738</v>
+        <v>0.8925077601169313</v>
       </c>
       <c r="P2">
-        <v>0.9488133340085281</v>
+        <v>0.9518751703760149</v>
       </c>
       <c r="Q2">
-        <v>26.6247610261521</v>
+        <v>26.55954746584271</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842377</v>
+        <v>-93.21942694842234</v>
       </c>
       <c r="S2">
-        <v>151.9474457047307</v>
+        <v>152.0892057651289</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.012125426291422</v>
+        <v>1.030800055698176</v>
       </c>
       <c r="O3">
-        <v>0.5561090193401624</v>
+        <v>0.5561090193399416</v>
       </c>
       <c r="P3">
-        <v>0.7555422650375324</v>
+        <v>0.7715090948555632</v>
       </c>
       <c r="Q3">
-        <v>13.66506888193331</v>
+        <v>13.64428805325856</v>
       </c>
       <c r="R3">
-        <v>-118.9936572386278</v>
+        <v>-118.9936572386297</v>
       </c>
       <c r="S3">
-        <v>160.8938660067494</v>
+        <v>161.6212260961166</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9182099025475329</v>
+        <v>0.9423650086357304</v>
       </c>
       <c r="O4">
-        <v>0.278054509681164</v>
+        <v>0.2780545096809343</v>
       </c>
       <c r="P4">
-        <v>0.7843168634841295</v>
+        <v>0.8090206275911052</v>
       </c>
       <c r="Q4">
-        <v>7.721538034127004</v>
+        <v>7.388145802825586</v>
       </c>
       <c r="R4">
-        <v>-118.993657233567</v>
+        <v>-118.9936572335597</v>
       </c>
       <c r="S4">
-        <v>171.2112345780337</v>
+        <v>171.3247428755763</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.365362558453445</v>
+        <v>2.401491033260913</v>
       </c>
       <c r="D5">
-        <v>2.438396203888634</v>
+        <v>2.393812454838103</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.31285419708317</v>
+        <v>27.73002989019322</v>
       </c>
       <c r="G5">
-        <v>28.15617409412128</v>
+        <v>27.64136530380515</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
-        <v>0.8363278178308596</v>
+        <v>0.8673731614741615</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8363278178310658</v>
+        <v>0.8673731614746218</v>
       </c>
       <c r="Q5">
-        <v>0.5226334985301729</v>
+        <v>-0.05288768975600288</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.4773665018746</v>
+        <v>179.9471123098505</v>
       </c>
       <c r="T5">
-        <v>0.2943868228310421</v>
+        <v>0.01503146208658031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.918209902541578</v>
+        <v>0.9423650086289639</v>
       </c>
       <c r="O6">
-        <v>0.2780545096896802</v>
+        <v>0.2780545096894504</v>
       </c>
       <c r="P6">
-        <v>0.7843168634940614</v>
+        <v>0.8090206276003692</v>
       </c>
       <c r="Q6">
-        <v>7.721538034783737</v>
+        <v>7.388145803448443</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288301</v>
+        <v>-118.9936572288227</v>
       </c>
       <c r="S6">
-        <v>171.2112345774834</v>
+        <v>171.32474287501</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9986963653689155</v>
+        <v>1.001925018893096</v>
       </c>
       <c r="O2">
-        <v>0.9631240430161077</v>
+        <v>0.9631240430161805</v>
       </c>
       <c r="P2">
-        <v>0.9776535492808571</v>
+        <v>0.9801027185721876</v>
       </c>
       <c r="Q2">
-        <v>28.76552544387935</v>
+        <v>28.71505709894293</v>
       </c>
       <c r="R2">
-        <v>-91.48679392928021</v>
+        <v>-91.48679392927977</v>
       </c>
       <c r="S2">
-        <v>150.4473859786672</v>
+        <v>150.5808871457528</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.003428735932623</v>
+        <v>1.019482008846094</v>
       </c>
       <c r="O3">
-        <v>0.8367132283543156</v>
+        <v>0.8367132283541781</v>
       </c>
       <c r="P3">
-        <v>0.8905134831854853</v>
+        <v>0.902145577381164</v>
       </c>
       <c r="Q3">
-        <v>24.03107161779711</v>
+        <v>23.91106391689352</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053178</v>
+        <v>-98.94474932053134</v>
       </c>
       <c r="S3">
-        <v>152.0117542540815</v>
+        <v>152.7318335188773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9645958560420838</v>
+        <v>0.9843368743921518</v>
       </c>
       <c r="O4">
-        <v>0.7348977271739509</v>
+        <v>0.7348977271738134</v>
       </c>
       <c r="P4">
-        <v>0.87750570811451</v>
+        <v>0.8972418106202088</v>
       </c>
       <c r="Q4">
-        <v>22.19386874354818</v>
+        <v>21.69907693111595</v>
       </c>
       <c r="R4">
-        <v>-97.41604264393736</v>
+        <v>-97.41604264393511</v>
       </c>
       <c r="S4">
-        <v>155.4650807822403</v>
+        <v>156.0091848206136</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8628244194424163</v>
+        <v>0.9011991970847297</v>
       </c>
       <c r="D5">
-        <v>0.9457031949250905</v>
+        <v>0.8914193771907122</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.963038216569233</v>
+        <v>10.40615198060687</v>
       </c>
       <c r="G5">
-        <v>10.9200398832698</v>
+        <v>10.29322434763812</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
-        <v>0.9268372424913425</v>
+        <v>0.9507659957500708</v>
       </c>
       <c r="O5">
-        <v>0.6337732350778233</v>
+        <v>0.6337732350776877</v>
       </c>
       <c r="P5">
-        <v>0.8677743776472471</v>
+        <v>0.8953002738664181</v>
       </c>
       <c r="Q5">
-        <v>20.20478536459427</v>
+        <v>19.32713167338935</v>
       </c>
       <c r="R5">
-        <v>-95.39765209811361</v>
+        <v>-95.39765209810888</v>
       </c>
       <c r="S5">
-        <v>159.0090121585893</v>
+        <v>159.3116218364152</v>
       </c>
       <c r="T5">
-        <v>0.2535604767631076</v>
+        <v>0.01512910226145831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9645958560405977</v>
+        <v>0.9843368743899518</v>
       </c>
       <c r="O6">
-        <v>0.7348977271789056</v>
+        <v>0.7348977271787681</v>
       </c>
       <c r="P6">
-        <v>0.8775057081192937</v>
+        <v>0.8972418106245776</v>
       </c>
       <c r="Q6">
-        <v>22.19386874379488</v>
+        <v>21.69907693135158</v>
       </c>
       <c r="R6">
-        <v>-97.41604264333631</v>
+        <v>-97.41604264333407</v>
       </c>
       <c r="S6">
-        <v>155.4650807821945</v>
+        <v>156.0091848205309</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9986963653689155</v>
+        <v>1.001925018893096</v>
       </c>
       <c r="O2">
-        <v>0.9631240430161077</v>
+        <v>0.9631240430161805</v>
       </c>
       <c r="P2">
-        <v>0.9776535492808571</v>
+        <v>0.9801027185721876</v>
       </c>
       <c r="Q2">
-        <v>28.76552544387935</v>
+        <v>28.71505709894293</v>
       </c>
       <c r="R2">
-        <v>-91.48679392928021</v>
+        <v>-91.48679392927977</v>
       </c>
       <c r="S2">
-        <v>150.4473859786672</v>
+        <v>150.5808871457528</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.003428735932623</v>
+        <v>1.019482008846094</v>
       </c>
       <c r="O3">
-        <v>0.8367132283543156</v>
+        <v>0.8367132283541781</v>
       </c>
       <c r="P3">
-        <v>0.8905134831854853</v>
+        <v>0.902145577381164</v>
       </c>
       <c r="Q3">
-        <v>24.03107161779711</v>
+        <v>23.91106391689352</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053178</v>
+        <v>-98.94474932053134</v>
       </c>
       <c r="S3">
-        <v>152.0117542540815</v>
+        <v>152.7318335188773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9645958560420838</v>
+        <v>0.9843368743921518</v>
       </c>
       <c r="O4">
-        <v>0.7348977271739509</v>
+        <v>0.7348977271738134</v>
       </c>
       <c r="P4">
-        <v>0.87750570811451</v>
+        <v>0.8972418106202088</v>
       </c>
       <c r="Q4">
-        <v>22.19386874354818</v>
+        <v>21.69907693111595</v>
       </c>
       <c r="R4">
-        <v>-97.41604264393736</v>
+        <v>-97.41604264393511</v>
       </c>
       <c r="S4">
-        <v>155.4650807822403</v>
+        <v>156.0091848206136</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8628244194424163</v>
+        <v>0.9011991970847297</v>
       </c>
       <c r="D5">
-        <v>0.9457031949250905</v>
+        <v>0.8914193771907122</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.963038216569233</v>
+        <v>10.40615198060687</v>
       </c>
       <c r="G5">
-        <v>10.9200398832698</v>
+        <v>10.29322434763812</v>
       </c>
       <c r="H5">
-        <v>15.19611505439219</v>
+        <v>4.8553009311075</v>
       </c>
       <c r="I5">
-        <v>54.74848265373475</v>
+        <v>-1154.066690747476</v>
       </c>
       <c r="J5">
-        <v>2.112151900861315</v>
+        <v>2.112151900923465</v>
       </c>
       <c r="K5">
-        <v>3.596397547105692</v>
+        <v>3.596397547225574</v>
       </c>
       <c r="L5">
-        <v>2.112151900851249</v>
+        <v>2.112151900843537</v>
       </c>
       <c r="M5">
-        <v>3.596397547087721</v>
+        <v>3.596397547101176</v>
       </c>
       <c r="N5">
-        <v>0.9268372424913425</v>
+        <v>0.9507659957500708</v>
       </c>
       <c r="O5">
-        <v>0.6337732350778233</v>
+        <v>0.6337732350776877</v>
       </c>
       <c r="P5">
-        <v>0.8677743776472471</v>
+        <v>0.8953002738664181</v>
       </c>
       <c r="Q5">
-        <v>20.20478536459427</v>
+        <v>19.32713167338935</v>
       </c>
       <c r="R5">
-        <v>-95.39765209811361</v>
+        <v>-95.39765209810888</v>
       </c>
       <c r="S5">
-        <v>159.0090121585893</v>
+        <v>159.3116218364152</v>
       </c>
       <c r="T5">
-        <v>0.2535604767631076</v>
+        <v>0.01512910226145831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9645958560405977</v>
+        <v>0.9843368743899518</v>
       </c>
       <c r="O6">
-        <v>0.7348977271789056</v>
+        <v>0.7348977271787681</v>
       </c>
       <c r="P6">
-        <v>0.8775057081192937</v>
+        <v>0.8972418106245776</v>
       </c>
       <c r="Q6">
-        <v>22.19386874379488</v>
+        <v>21.69907693135158</v>
       </c>
       <c r="R6">
-        <v>-97.41604264333631</v>
+        <v>-97.41604264333407</v>
       </c>
       <c r="S6">
-        <v>155.4650807821945</v>
+        <v>156.0091848205309</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10547,10 +10547,10 @@
         <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>26.67016311516076</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-91.68229557616606</v>
+        <v>-91.68229557616607</v>
       </c>
       <c r="S2">
         <v>152.6354521266393</v>
@@ -10600,13 +10600,13 @@
         <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>0.4711324625045255</v>
+        <v>0.471132462504526</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368237</v>
+        <v>0.8867526821368235</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174648</v>
+        <v>11.70358232174647</v>
       </c>
       <c r="R3">
         <v>-113.1797985005417</v>
@@ -10656,19 +10656,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.004840030213501</v>
+        <v>1.004840030213502</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557479</v>
+        <v>0.2355662312557487</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423143</v>
+        <v>0.9127115190423138</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751337</v>
+        <v>6.185827764751326</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957917</v>
       </c>
       <c r="S4">
         <v>173.1869568170009</v>
@@ -10682,49 +10682,49 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322859</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322859</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.5869721977396</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.5869721977396</v>
       </c>
       <c r="H5">
-        <v>7.914819502322203</v>
+        <v>2.528879653675809</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>-1154.065173134227</v>
       </c>
       <c r="J5">
-        <v>1.147731927161471</v>
+        <v>1.147731927223785</v>
       </c>
       <c r="K5">
-        <v>3.48843870139937</v>
+        <v>3.488438701518221</v>
       </c>
       <c r="L5">
-        <v>1.147731927171281</v>
+        <v>1.147731927163411</v>
       </c>
       <c r="M5">
-        <v>3.488438701415539</v>
+        <v>3.488438701430869</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043281</v>
+        <v>0.9526279648043289</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061711</v>
+        <v>0.9526279648061702</v>
       </c>
       <c r="Q5">
-        <v>-1.467109311888424E-11</v>
+        <v>-1.467909848803535E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10777,19 +10777,19 @@
         <v>1.004840030206317</v>
       </c>
       <c r="O6">
-        <v>0.2355662312598142</v>
+        <v>0.2355662312598151</v>
       </c>
       <c r="P6">
-        <v>0.912711519050749</v>
+        <v>0.9127115190507485</v>
       </c>
       <c r="Q6">
-        <v>6.18582776511488</v>
+        <v>6.185827765114868</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912247</v>
+        <v>-113.1797984912249</v>
       </c>
       <c r="S6">
-        <v>173.1869568167124</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
